--- a/ExperimentalMatrix.xlsx
+++ b/ExperimentalMatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/323908a22793b6ae/Documents/Git/thermalManikinSleep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="519" documentId="8_{CB5236BF-E64F-45DB-8242-D069E4CBAEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87A27733-17C8-44BC-AC83-699DF18326D6}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="8_{CB5236BF-E64F-45DB-8242-D069E4CBAEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{921D141F-2800-480C-9E45-0533ED3F3582}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{3B00080F-A208-4C2A-8DC2-6EB22AF57DA7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{3B00080F-A208-4C2A-8DC2-6EB22AF57DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="DOE" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CoreTemp" sheetId="4" r:id="rId3"/>
     <sheet name="HOBO" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E03FDA-55A5-40A8-B902-419E7BC4280B}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1440,8 +1440,8 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <f ca="1">RAND()</f>
-        <v>0.51248978187671379</v>
+        <f t="shared" ref="B2:B46" ca="1" si="0">RAND()</f>
+        <v>0.66707882847359334</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C2:J2)</f>
+        <f t="shared" ref="K2:K33" si="1">_xlfn.TEXTJOIN("_",TRUE,C2:J2)</f>
         <v>16_Heavy_Heavy_Fetal_TRUE_Mattress_ElectricMP_1</v>
       </c>
       <c r="L2" t="b">
@@ -1483,8 +1483,8 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <f ca="1">RAND()</f>
-        <v>0.34570080858774643</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9506499573019449</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C3:J3)</f>
+        <f t="shared" si="1"/>
         <v>16_Heavy_Heavy_Fetal_TRUE_Mattress_HeatedBlanket_1</v>
       </c>
       <c r="L3" t="b">
@@ -1526,8 +1526,8 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f ca="1">RAND()</f>
-        <v>0.455742521167667</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4274226957639955</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C4:J4)</f>
+        <f t="shared" si="1"/>
         <v>16_Heavy_Heavy_Fetal_TRUE_Mattress_HWBottle_1</v>
       </c>
       <c r="L4" t="b">
@@ -1569,8 +1569,8 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f ca="1">RAND()</f>
-        <v>0.46506667035017413</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70502311823282726</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C5:J5)</f>
+        <f t="shared" si="1"/>
         <v>16_Heavy_Heavy_Fetal_TRUE_Mattress_HydropoweredMP_1</v>
       </c>
       <c r="L5" t="b">
@@ -1612,8 +1612,8 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <f ca="1">RAND()</f>
-        <v>0.1772234835320089</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51077695400470824</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C6:J6)</f>
+        <f t="shared" si="1"/>
         <v>16_Heavy_Heavy_Fetal_TRUE_Mattress_None_1</v>
       </c>
       <c r="L6" t="b">
@@ -1661,8 +1661,8 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f ca="1">RAND()</f>
-        <v>0.60574161741565435</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37884577273497744</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="K7" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C7:J7)</f>
+        <f t="shared" si="1"/>
         <v>16_Heavy_Heavy_Fetal_TRUE_Mattress_None_2</v>
       </c>
       <c r="L7" t="b">
@@ -1704,8 +1704,8 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <f ca="1">RAND()</f>
-        <v>0.74419852844909107</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46841547446495524</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -1732,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C8:J8)</f>
+        <f t="shared" si="1"/>
         <v>16_Heavy_Heavy_Fetal_TRUE_Mattress_None_3</v>
       </c>
       <c r="L8" t="b">
@@ -1747,8 +1747,8 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <f ca="1">RAND()</f>
-        <v>0.78720100843478025</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60845760129985949</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C9:J9)</f>
+        <f t="shared" si="1"/>
         <v>16_Heavy_Heavy_Fetal_FALSE_Mattress_None_1</v>
       </c>
       <c r="M9" t="s">
@@ -1796,8 +1796,8 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <f ca="1">RAND()</f>
-        <v>0.75952421111669266</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54624564671793541</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C10:J10)</f>
+        <f t="shared" si="1"/>
         <v>16_Heavy_Light_Log_FALSE_Mattress_None_1</v>
       </c>
       <c r="L10" t="b">
@@ -1839,8 +1839,8 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <f ca="1">RAND()</f>
-        <v>0.61949894328140209</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14187275755546735</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C11:J11)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Heavy_Log_FALSE_Mattress_None_1</v>
       </c>
       <c r="L11" t="b">
@@ -1882,8 +1882,8 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <f ca="1">RAND()</f>
-        <v>0.20721136264391948</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97223476623946448</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C12:J12)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Fetal_FALSE_Mattress_None_1</v>
       </c>
       <c r="L12" t="b">
@@ -1925,8 +1925,8 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <f ca="1">RAND()</f>
-        <v>0.11238958491281958</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33677572738416528</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C13:J13)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Log_FALSE_Mattress_ElectricMP_1</v>
       </c>
       <c r="L13" t="b">
@@ -1968,8 +1968,8 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <f ca="1">RAND()</f>
-        <v>0.84689115793408809</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44897291355883195</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C14:J14)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Log_FALSE_Mattress_HeatedBlanket_1</v>
       </c>
       <c r="L14" t="b">
@@ -2020,8 +2020,8 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <f ca="1">RAND()</f>
-        <v>0.53723886401782572</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15549367029009575</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -2048,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="K15" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C15:J15)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Log_FALSE_Mattress_HeatedBlanket_2</v>
       </c>
       <c r="L15" t="b">
@@ -2063,8 +2063,8 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <f ca="1">RAND()</f>
-        <v>3.3190320316155431E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51432669005711662</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C16:J16)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Log_FALSE_Mattress_HWBottle_1</v>
       </c>
       <c r="L16" t="b">
@@ -2106,8 +2106,8 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <f ca="1">RAND()</f>
-        <v>0.52553513127244211</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65157032228320166</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C17:J17)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Log_FALSE_Mattress_HydropoweredMP_1</v>
       </c>
       <c r="L17" t="b">
@@ -2149,8 +2149,8 @@
         <v>2</v>
       </c>
       <c r="B18" s="11">
-        <f ca="1">RAND()</f>
-        <v>0.70063142143697033</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53215096299050346</v>
       </c>
       <c r="C18" s="11">
         <v>28</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="11" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C18:J18)</f>
+        <f t="shared" si="1"/>
         <v>28_Nude_None_Starfish_FALSE_Slat_None_1</v>
       </c>
       <c r="L18" s="11" t="b">
@@ -2201,8 +2201,8 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <f ca="1">RAND()</f>
-        <v>0.34673201180035673</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36575129860159605</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C19:J19)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Log_FALSE_Mattress_None_1</v>
       </c>
       <c r="L19" t="b">
@@ -2253,8 +2253,8 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <f ca="1">RAND()</f>
-        <v>0.88259713142388918</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99643893843108267</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -2281,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C20:J20)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Log_FALSE_Mattress_None_2</v>
       </c>
       <c r="L20" t="b">
@@ -2305,8 +2305,8 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <f ca="1">RAND()</f>
-        <v>0.16289413948924092</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86964540510875277</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -2333,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="K21" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C21:J21)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Log_FALSE_Mattress_None_3</v>
       </c>
       <c r="L21" t="b">
@@ -2348,8 +2348,8 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <f ca="1">RAND()</f>
-        <v>0.24206159248936532</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88362459791803305</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -2376,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="K22" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C22:J22)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Log_FALSE_Mattress_None_4</v>
       </c>
       <c r="L22" t="b">
@@ -2391,8 +2391,8 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <f ca="1">RAND()</f>
-        <v>0.31210540855220625</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22829107797929082</v>
       </c>
       <c r="C23">
         <v>16</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C23:J23)</f>
+        <f t="shared" si="1"/>
         <v>16_Light_Light_Log_TRUE_Mattress_None_1</v>
       </c>
       <c r="L23" t="b">
@@ -2434,8 +2434,8 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <f ca="1">RAND()</f>
-        <v>0.88608499696174281</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20339456050314697</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C24:J24)</f>
+        <f t="shared" si="1"/>
         <v>16_Nude_None_Fetal_FALSE_Slat_None_1</v>
       </c>
       <c r="L24" t="b">
@@ -2483,8 +2483,8 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <f ca="1">RAND()</f>
-        <v>0.82785803129512781</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55685986015249922</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -2511,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C25:J25)</f>
+        <f t="shared" si="1"/>
         <v>16_Nude_None_Fetal_FALSE_Slat_None_2</v>
       </c>
       <c r="L25" t="b">
@@ -2532,8 +2532,8 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <f ca="1">RAND()</f>
-        <v>0.72191282406579682</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26190926693941297</v>
       </c>
       <c r="C26">
         <v>16</v>
@@ -2560,7 +2560,7 @@
         <v>3</v>
       </c>
       <c r="K26" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C26:J26)</f>
+        <f t="shared" si="1"/>
         <v>16_Nude_None_Fetal_FALSE_Slat_None_3</v>
       </c>
       <c r="L26" t="b">
@@ -2575,8 +2575,8 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <f ca="1">RAND()</f>
-        <v>0.87230106675093877</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99835698161434283</v>
       </c>
       <c r="C27">
         <v>16</v>
@@ -2603,7 +2603,7 @@
         <v>4</v>
       </c>
       <c r="K27" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C27:J27)</f>
+        <f t="shared" si="1"/>
         <v>16_Nude_None_Fetal_FALSE_Slat_None_4</v>
       </c>
       <c r="L27" t="b">
@@ -2618,8 +2618,8 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <f ca="1">RAND()</f>
-        <v>0.22187862673195113</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39786370568900953</v>
       </c>
       <c r="C28">
         <v>16</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C28:J28)</f>
+        <f t="shared" si="1"/>
         <v>16_Nude_None_Log_FALSE_Slat_None_1</v>
       </c>
       <c r="L28" t="b">
@@ -2673,8 +2673,8 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <f ca="1">RAND()</f>
-        <v>0.62306801121522171</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3349859950978704E-2</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -2701,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C29:J29)</f>
+        <f t="shared" si="1"/>
         <v>16_Nude_None_Log_FALSE_Slat_None_2</v>
       </c>
       <c r="L29" t="b">
@@ -2725,8 +2725,8 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <f ca="1">RAND()</f>
-        <v>2.0062383776088488E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44999389815229973</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -2753,7 +2753,7 @@
         <v>3</v>
       </c>
       <c r="K30" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C30:J30)</f>
+        <f t="shared" si="1"/>
         <v>16_Nude_None_Log_FALSE_Slat_None_3</v>
       </c>
       <c r="L30" t="b">
@@ -2768,8 +2768,8 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <f ca="1">RAND()</f>
-        <v>0.58659022556034068</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44713874994118508</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -2796,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="K31" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C31:J31)</f>
+        <f t="shared" si="1"/>
         <v>16_Nude_None_Log_FALSE_Slat_None_4</v>
       </c>
       <c r="L31" t="b">
@@ -2811,8 +2811,8 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <f ca="1">RAND()</f>
-        <v>0.55263867587983129</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78314820539957186</v>
       </c>
       <c r="C32">
         <v>24</v>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C32:J32)</f>
+        <f t="shared" si="1"/>
         <v>24_Heavy_None_Log_FALSE_Slat_None_1</v>
       </c>
       <c r="L32" t="b">
@@ -2863,8 +2863,8 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <f ca="1">RAND()</f>
-        <v>0.67433014260583168</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54095015050420903</v>
       </c>
       <c r="C33">
         <v>24</v>
@@ -2891,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C33:J33)</f>
+        <f t="shared" si="1"/>
         <v>24_Light_None_Log_FALSE_Slat_None_1</v>
       </c>
       <c r="L33" t="b">
@@ -2915,8 +2915,8 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <f ca="1">RAND()</f>
-        <v>0.75313366116422309</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41389362580979672</v>
       </c>
       <c r="C34">
         <v>24</v>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C34:J34)</f>
+        <f t="shared" ref="K34:K65" si="2">_xlfn.TEXTJOIN("_",TRUE,C34:J34)</f>
         <v>24_Nude_Heavy_Log_FALSE_Slat_None_1</v>
       </c>
       <c r="L34" t="b">
@@ -2967,8 +2967,8 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <f ca="1">RAND()</f>
-        <v>0.56492583947571484</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91398847062801925</v>
       </c>
       <c r="C35">
         <v>24</v>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C35:J35)</f>
+        <f t="shared" si="2"/>
         <v>24_Nude_Light_Log_FALSE_Slat_None_1</v>
       </c>
       <c r="L35" t="b">
@@ -3016,8 +3016,8 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <f ca="1">RAND()</f>
-        <v>0.79091026806433651</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43024324156399474</v>
       </c>
       <c r="C36">
         <v>24</v>
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C36:J36)</f>
+        <f t="shared" si="2"/>
         <v>24_Nude_None_Log_FALSE_Mattress_None_1</v>
       </c>
       <c r="L36" t="b">
@@ -3065,8 +3065,8 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <f ca="1">RAND()</f>
-        <v>0.50064122487512264</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69973230294317146</v>
       </c>
       <c r="C37">
         <v>28</v>
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="str">
-        <f ca="1">_xlfn.TEXTJOIN("_",TRUE,C37:J37)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_CeilingFanHigh_1</v>
       </c>
       <c r="L37" t="b">
@@ -3120,8 +3120,8 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <f ca="1">RAND()</f>
-        <v>0.66842572961012059</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0061976700145263E-2</v>
       </c>
       <c r="C38">
         <v>28</v>
@@ -3148,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="K38" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C38:J38)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_CeilingFanHigh_2</v>
       </c>
       <c r="L38" t="b">
@@ -3172,8 +3172,8 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <f ca="1">RAND()</f>
-        <v>0.7514738729092032</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22034955492409225</v>
       </c>
       <c r="C39">
         <v>28</v>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C39:J39)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_CeilingFanLow_1</v>
       </c>
       <c r="L39" t="b">
@@ -3224,8 +3224,8 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <f ca="1">RAND()</f>
-        <v>0.36815882496208396</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44986444626911959</v>
       </c>
       <c r="C40">
         <v>28</v>
@@ -3252,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="K40" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C40:J40)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_CeilingFanLow_2</v>
       </c>
       <c r="L40" t="b">
@@ -3276,8 +3276,8 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <f ca="1">RAND()</f>
-        <v>0.13888120813781191</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.801411258989844</v>
       </c>
       <c r="C41">
         <v>28</v>
@@ -3304,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C41:J41)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_HydropoweredMP_1</v>
       </c>
       <c r="L41" t="b">
@@ -3331,8 +3331,8 @@
         <v>4</v>
       </c>
       <c r="B42">
-        <f ca="1">RAND()</f>
-        <v>0.94899031523158439</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4056566449858985E-2</v>
       </c>
       <c r="C42">
         <v>28</v>
@@ -3359,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="K42" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C42:J42)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_HydropoweredMP_2</v>
       </c>
       <c r="L42" t="b">
@@ -3386,8 +3386,8 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <f ca="1">RAND()</f>
-        <v>0.65113897155935485</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0903620983578257E-2</v>
       </c>
       <c r="C43">
         <v>28</v>
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C43:J43)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_None_1</v>
       </c>
       <c r="L43" t="b">
@@ -3438,8 +3438,8 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <f ca="1">RAND()</f>
-        <v>0.37305930169640888</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79325496209766666</v>
       </c>
       <c r="C44">
         <v>28</v>
@@ -3466,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="K44" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C44:J44)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_None_2</v>
       </c>
       <c r="L44" t="b">
@@ -3490,8 +3490,8 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <f ca="1">RAND()</f>
-        <v>0.7146773030716489</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35694035624557174</v>
       </c>
       <c r="C45">
         <v>28</v>
@@ -3518,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="K45" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C45:J45)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_None_3</v>
       </c>
       <c r="L45" t="b">
@@ -3542,8 +3542,8 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <f ca="1">RAND()</f>
-        <v>0.89999179523363781</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93664042676459303</v>
       </c>
       <c r="C46">
         <v>28</v>
@@ -3570,7 +3570,7 @@
         <v>4</v>
       </c>
       <c r="K46" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C46:J46)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_None_4</v>
       </c>
       <c r="L46" t="b">
@@ -3615,7 +3615,7 @@
         <v>5</v>
       </c>
       <c r="K47" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C47:J47)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_None_5</v>
       </c>
       <c r="L47" t="b">
@@ -3636,8 +3636,8 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <f ca="1">RAND()</f>
-        <v>0.96632256570220099</v>
+        <f t="shared" ref="B48:B65" ca="1" si="3">RAND()</f>
+        <v>0.71791733653795031</v>
       </c>
       <c r="C48">
         <v>28</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C48:J48)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_PedestalFanHigh_1</v>
       </c>
       <c r="L48" t="b">
@@ -3688,8 +3688,8 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <f ca="1">RAND()</f>
-        <v>0.37632108538856213</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21553749221532803</v>
       </c>
       <c r="C49">
         <v>28</v>
@@ -3716,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="K49" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C49:J49)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_PedestalFanHigh_2</v>
       </c>
       <c r="L49" t="b">
@@ -3740,8 +3740,8 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <f ca="1">RAND()</f>
-        <v>0.6392162965791014</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14097300318791173</v>
       </c>
       <c r="C50">
         <v>28</v>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C50:J50)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Mattress_PedestalFanLow_1</v>
       </c>
       <c r="L50" t="b">
@@ -3792,8 +3792,8 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <f ca="1">RAND()</f>
-        <v>0.88194519707820984</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.82823721818916074</v>
       </c>
       <c r="C51">
         <v>28</v>
@@ -3820,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C51:J51)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Slat_None_1</v>
       </c>
       <c r="L51" t="b">
@@ -3841,8 +3841,8 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <f ca="1">RAND()</f>
-        <v>0.64951361526859985</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.73939785329270835</v>
       </c>
       <c r="C52">
         <v>28</v>
@@ -3869,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C52:J52)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_Light_Log_FALSE_Slat_None_1</v>
       </c>
       <c r="L52" t="b">
@@ -3893,8 +3893,8 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <f ca="1">RAND()</f>
-        <v>0.39348745695059606</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95363857097040694</v>
       </c>
       <c r="C53">
         <v>28</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="K53" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C53:J53)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_None_Log_FALSE_Mattress_None_1</v>
       </c>
       <c r="L53" t="b">
@@ -3942,8 +3942,8 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <f ca="1">RAND()</f>
-        <v>0.65718335234290781</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.52734734218910118</v>
       </c>
       <c r="C54">
         <v>28</v>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C54:J54)</f>
+        <f t="shared" si="2"/>
         <v>28_Light_None_Starfish_FALSE_Mattress_None_1</v>
       </c>
       <c r="L54" t="b">
@@ -3991,8 +3991,8 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <f ca="1">RAND()</f>
-        <v>0.15135759556834671</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.0491155402890184E-2</v>
       </c>
       <c r="C55">
         <v>28</v>
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C55:J55)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_Light_Log_FALSE_Mattress_None_1</v>
       </c>
       <c r="L55" t="b">
@@ -4043,8 +4043,8 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <f ca="1">RAND()</f>
-        <v>0.6766663192035397</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18687357933268678</v>
       </c>
       <c r="C56">
         <v>28</v>
@@ -4071,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="K56" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C56:J56)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_None_Log_FALSE_Slat_None_2</v>
       </c>
       <c r="L56" t="b">
@@ -4095,8 +4095,8 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <f ca="1">RAND()</f>
-        <v>0.48235982088199802</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.91647807586217156</v>
       </c>
       <c r="C57">
         <v>28</v>
@@ -4123,7 +4123,7 @@
         <v>3</v>
       </c>
       <c r="K57" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C57:J57)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_None_Log_FALSE_Slat_None_3</v>
       </c>
       <c r="L57" t="b">
@@ -4144,8 +4144,8 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <f ca="1">RAND()</f>
-        <v>0.64070388515632137</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.93891013688400404</v>
       </c>
       <c r="C58">
         <v>28</v>
@@ -4172,7 +4172,7 @@
         <v>4</v>
       </c>
       <c r="K58" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C58:J58)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_None_Log_FALSE_Slat_None_4</v>
       </c>
       <c r="L58" t="b">
@@ -4193,8 +4193,8 @@
         <v>4</v>
       </c>
       <c r="B59">
-        <f ca="1">RAND()</f>
-        <v>0.86215593096326726</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41554898324150102</v>
       </c>
       <c r="C59">
         <v>28</v>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C59:J59)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_None_Starfish_FALSE_Mattress_CeilingFanHigh_1</v>
       </c>
       <c r="L59" t="b">
@@ -4245,8 +4245,8 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <f ca="1">RAND()</f>
-        <v>0.73604909401810392</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.61101882444952593</v>
       </c>
       <c r="C60">
         <v>28</v>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C60:J60)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_None_Starfish_FALSE_Mattress_CeilingFanLow_1</v>
       </c>
       <c r="L60" t="b">
@@ -4300,8 +4300,8 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <f ca="1">RAND()</f>
-        <v>0.77798425328182763</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.48255736940973215</v>
       </c>
       <c r="C61">
         <v>28</v>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C61:J61)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_None_Starfish_FALSE_Mattress_HydropoweredMP_1</v>
       </c>
       <c r="L61" t="b">
@@ -4352,8 +4352,8 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <f ca="1">RAND()</f>
-        <v>0.13132749487225159</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.65245336065566517</v>
       </c>
       <c r="C62">
         <v>28</v>
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C62:J62)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_None_Starfish_FALSE_Mattress_None_1</v>
       </c>
       <c r="L62" t="b">
@@ -4404,8 +4404,8 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <f ca="1">RAND()</f>
-        <v>5.7364587287237701E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39270267648546853</v>
       </c>
       <c r="C63">
         <v>28</v>
@@ -4432,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="K63" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C63:J63)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_None_Starfish_FALSE_Mattress_None_2</v>
       </c>
       <c r="L63" t="b">
@@ -4456,8 +4456,8 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <f ca="1">RAND()</f>
-        <v>6.2580465827838605E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.29262239569007631</v>
       </c>
       <c r="C64">
         <v>28</v>
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C64:J64)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_None_Starfish_FALSE_Mattress_PedestalFanHigh_1</v>
       </c>
       <c r="L64" t="b">
@@ -4505,8 +4505,8 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <f ca="1">RAND()</f>
-        <v>0.43455822032806901</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.162280807321515E-2</v>
       </c>
       <c r="C65">
         <v>28</v>
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C65:J65)</f>
+        <f t="shared" si="2"/>
         <v>28_Nude_None_Starfish_FALSE_Mattress_PedestalFanHigh_1</v>
       </c>
       <c r="L65" t="b">
@@ -4581,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="K66" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C66:J66)</f>
+        <f t="shared" ref="K66:K97" si="4">_xlfn.TEXTJOIN("_",TRUE,C66:J66)</f>
         <v>28_Nude_None_Starfish_FALSE_Mattress_PedestalFanHigh_2</v>
       </c>
       <c r="L66" t="b">
@@ -4623,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C67:J67)</f>
+        <f t="shared" si="4"/>
         <v>28_Nude_None_Starfish_FALSE_Mattress_PedestalFanLow_1</v>
       </c>
       <c r="L67" t="b">
@@ -4641,8 +4641,8 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <f ca="1">RAND()</f>
-        <v>0.88131652063393595</v>
+        <f t="shared" ref="B68:B73" ca="1" si="5">RAND()</f>
+        <v>0.93393015485770436</v>
       </c>
       <c r="C68">
         <v>28</v>
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="K68" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C68:J68)</f>
+        <f t="shared" si="4"/>
         <v>28_Nude_None_Starfish_FALSE_Slat_None_1</v>
       </c>
       <c r="L68" t="b">
@@ -4690,8 +4690,8 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <f ca="1">RAND()</f>
-        <v>0.47151865963888184</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.70296633553858989</v>
       </c>
       <c r="C69">
         <v>28</v>
@@ -4718,7 +4718,7 @@
         <v>2</v>
       </c>
       <c r="K69" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C69:J69)</f>
+        <f t="shared" si="4"/>
         <v>28_Nude_None_Starfish_FALSE_Slat_None_2</v>
       </c>
       <c r="L69" t="b">
@@ -4742,8 +4742,8 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <f ca="1">RAND()</f>
-        <v>0.90042188609445561</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.94418020233965871</v>
       </c>
       <c r="C70">
         <v>28</v>
@@ -4770,7 +4770,7 @@
         <v>3</v>
       </c>
       <c r="K70" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C70:J70)</f>
+        <f t="shared" si="4"/>
         <v>28_Nude_None_Starfish_FALSE_Slat_None_3</v>
       </c>
       <c r="L70" t="b">
@@ -4794,8 +4794,8 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <f ca="1">RAND()</f>
-        <v>0.91220176313164691</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.69411128077750028</v>
       </c>
       <c r="C71">
         <v>28</v>
@@ -4822,7 +4822,7 @@
         <v>4</v>
       </c>
       <c r="K71" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C71:J71)</f>
+        <f t="shared" si="4"/>
         <v>28_Nude_None_Starfish_FALSE_Slat_None_4</v>
       </c>
       <c r="L71" t="b">
@@ -4843,8 +4843,8 @@
         <v>2</v>
       </c>
       <c r="B72">
-        <f ca="1">RAND()</f>
-        <v>0.21123113971118279</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.20882070200934089</v>
       </c>
       <c r="C72">
         <v>28</v>
@@ -4871,7 +4871,7 @@
         <v>5</v>
       </c>
       <c r="K72" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C72:J72)</f>
+        <f t="shared" si="4"/>
         <v>28_Nude_None_Starfish_FALSE_Slat_None_5</v>
       </c>
       <c r="L72" t="b">
@@ -4892,8 +4892,8 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <f ca="1">RAND()</f>
-        <v>0.69855591129999839</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.76196137742855485</v>
       </c>
       <c r="C73">
         <v>28</v>
@@ -4920,7 +4920,7 @@
         <v>6</v>
       </c>
       <c r="K73" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,C73:J73)</f>
+        <f t="shared" si="4"/>
         <v>28_Nude_None_Starfish_FALSE_Slat_None_6</v>
       </c>
       <c r="L73" t="b">
@@ -5223,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D580C7-3BF2-4B0F-B70D-FDE8F793A269}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
